--- a/Others/In english/EnglishLearning.xlsx
+++ b/Others/In english/EnglishLearning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igorromero/NotesInGeneral/Others/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igorromero/NotesInGeneral/Others/In english/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBCD19C-C89B-5E47-86AF-9308FB889FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA0570A-429E-F047-835B-29C61807F1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="500" windowWidth="26740" windowHeight="15680" xr2:uid="{AC7E563E-45B2-274B-A152-6D67515186B1}"/>
   </bookViews>
@@ -815,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB8A438-9F36-994F-8517-842BCE2B6A9A}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="134" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="134" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
